--- a/companies_info.xlsx
+++ b/companies_info.xlsx
@@ -1,156 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="CID_Info" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CID_Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address:</t>
-  </si>
-  <si>
-    <t>Phone:</t>
-  </si>
-  <si>
-    <t>Fax:</t>
-  </si>
-  <si>
-    <t>Email:</t>
-  </si>
-  <si>
-    <t>Website:</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>310164</t>
-  </si>
-  <si>
-    <t>307494</t>
-  </si>
-  <si>
-    <t>305637</t>
-  </si>
-  <si>
-    <t>519675</t>
-  </si>
-  <si>
-    <t>A-Plan Holdings</t>
-  </si>
-  <si>
-    <t>A.I.F. Ltd</t>
-  </si>
-  <si>
-    <t>A H Bell &amp; Co (Insurance Brokers) Ltd</t>
-  </si>
-  <si>
-    <t>A J Insurance Service Limited</t>
-  </si>
-  <si>
-    <t>2 Des Roches square Witney Oxfordshire OX28 4LE UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>14 Falmouth Avenue Highams Park London E4 9QR UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>The Business &amp; Media Centre The County Ground Nottingham Road Derby Derbyshire DE21 6DA UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>Fleet House 148 Dock Road Tilbury Essex RM18 7BS UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>44 1993893311</t>
-  </si>
-  <si>
-    <t>44 02089237558</t>
-  </si>
-  <si>
-    <t>44 1332372111</t>
-  </si>
-  <si>
-    <t>+44 08448806048</t>
-  </si>
-  <si>
-    <t>44 1993893310</t>
-  </si>
-  <si>
-    <t>44 02082817770</t>
-  </si>
-  <si>
-    <t>+44</t>
-  </si>
-  <si>
-    <t>+44 08448806815</t>
-  </si>
-  <si>
-    <t>cas@a-plan.co.uk</t>
-  </si>
-  <si>
-    <t>r.holmes@alfa-insurance.co.uk</t>
-  </si>
-  <si>
-    <t>saltr@bellbrokers.co.uk</t>
-  </si>
-  <si>
-    <t>paula@ajinsurance.co.uk</t>
-  </si>
-  <si>
-    <t>www.a-plan.co.uk</t>
-  </si>
-  <si>
-    <t>www.bellbrokers.co.uk</t>
-  </si>
-  <si>
-    <t>www.ajinsurance.co.uk</t>
-  </si>
-  <si>
-    <t>Authorised</t>
-  </si>
-  <si>
-    <t>Not Authorised</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,35 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -481,153 +353,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Address:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone:</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fax:</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Email:</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Website:</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A-Plan Holdings</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2 Des Roches square Witney Oxfordshire OX28 4LE UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44 1993893311</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>44 1993893310</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>cas@a-plan.co.uk</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>www.a-plan.co.uk</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Authorised</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>307494</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A.I.F. Ltd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14 Falmouth Avenue Highams Park London E4 9QR UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44 02089237558</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>44 02082817770</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>r.holmes@alfa-insurance.co.uk</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Authorised</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>305637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A H Bell &amp; Co (Insurance Brokers) Ltd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The Business &amp; Media Centre The County Ground Nottingham Road Derby Derbyshire DE21 6DA UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44 1332372111</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>saltr@bellbrokers.co.uk</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>www.bellbrokers.co.uk</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Authorised</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519675</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A J Insurance Service Limited</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fleet House 148 Dock Road Tilbury Essex RM18 7BS UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>+44 08448806048</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+44 08448806815</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>paula@ajinsurance.co.uk</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>www.ajinsurance.co.uk</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Authorised</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>